--- a/Dashboards/FOLDIN.xlsx
+++ b/Dashboards/FOLDIN.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -139,12 +139,12 @@
     <x:t>CRITOS</x:t>
   </x:si>
   <x:si>
+    <x:t>StormBoy</x:t>
+  </x:si>
+  <x:si>
     <x:t>ihasmelee</x:t>
   </x:si>
   <x:si>
-    <x:t>StormBoy</x:t>
-  </x:si>
-  <x:si>
     <x:t>FoldingChair</x:t>
   </x:si>
   <x:si>
@@ -265,7 +265,7 @@
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
-    <x:t>10,7 (2636/246)</x:t>
+    <x:t>10,4 (2803/269)</x:t>
   </x:si>
   <x:si>
     <x:t>15,0 (60/4)</x:t>
@@ -307,6 +307,9 @@
     <x:t>8,9 (107/12)</x:t>
   </x:si>
   <x:si>
+    <x:t>7,3 (167/23)</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,7 (98/36)</x:t>
   </x:si>
   <x:si>
@@ -319,7 +322,7 @@
     <x:t>2,7 (96/35)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,3 (857/375)</x:t>
+    <x:t>2,2 (861/383)</x:t>
   </x:si>
   <x:si>
     <x:t>0,9 (12/14)</x:t>
@@ -352,7 +355,7 @@
     <x:t>2,2 (94/42)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,3 (14/11)</x:t>
+    <x:t>0,9 (18/19)</x:t>
   </x:si>
   <x:si>
     <x:t>2,2 (785/350)</x:t>
@@ -397,13 +400,13 @@
     <x:t>1,5 (55/36)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,2 (585/267)</x:t>
+    <x:t>2,1 (683/327)</x:t>
   </x:si>
   <x:si>
     <x:t>2,0 (240/119)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,3 (345/148)</x:t>
+    <x:t>2,1 (443/208)</x:t>
   </x:si>
   <x:si>
     <x:t>2,0 (20/10)</x:t>
@@ -430,7 +433,7 @@
     <x:t>0,9 (69/76)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,9 (735/387)</x:t>
+    <x:t>1,9 (762/405)</x:t>
   </x:si>
   <x:si>
     <x:t>1,6 (14/9)</x:t>
@@ -457,7 +460,7 @@
     <x:t>2,0 (158/80)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,5 (3/2)</x:t>
+    <x:t>1,5 (30/20)</x:t>
   </x:si>
   <x:si>
     <x:t>1,9 (308/166)</x:t>
@@ -472,7 +475,112 @@
     <x:t>1,6 (137/85)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,8 (28/16)</x:t>
+    <x:t>1,6 (1769/1079)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (37/23)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (35/22)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (95/48)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (204/151)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (41/45)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (162/98)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,9 (49/17)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (265/158)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (202/119)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (471/297)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (208/101)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (790/482)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (30/21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (144/114)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,0 (4/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (85/33)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (182/92)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (82/52)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (79/67)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (53/48)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (42/29)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (378/235)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (122/82)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (152/93)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (104/60)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (104/69)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,0 (7/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (37/25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (32/16)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (28/27)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (261/184)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (202/130)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (59/54)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (445/329)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (66/50)</x:t>
   </x:si>
   <x:si>
     <x:t>1,8 (18/10)</x:t>
@@ -481,112 +589,10 @@
     <x:t>1,7 (10/6)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,6 (1769/1079)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (37/23)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (35/22)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (95/48)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (204/151)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (41/45)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (162/98)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,9 (49/17)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (265/158)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (202/119)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (471/297)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (208/101)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (790/482)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (30/21)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (144/114)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,0 (4/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (85/33)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (182/92)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (82/52)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2 (79/67)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,1 (53/48)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (42/29)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (378/235)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (122/82)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (152/93)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (104/60)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (104/69)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,0 (7/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (37/25)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (32/16)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (28/27)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (261/184)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (202/130)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,1 (59/54)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (445/329)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (915/697)</x:t>
+    <x:t>1,1 (38/34)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (922/706)</x:t>
   </x:si>
   <x:si>
     <x:t>0,0 (0/1)</x:t>
@@ -610,7 +616,7 @@
     <x:t>1,4 (128/93)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,4 (64/27)</x:t>
+    <x:t>2,0 (71/36)</x:t>
   </x:si>
   <x:si>
     <x:t>1,3 (411/316)</x:t>
@@ -646,6 +652,9 @@
     <x:t>0,9 (14/15)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,1 (391/343)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,1 (419/372)</x:t>
   </x:si>
   <x:si>
@@ -664,7 +673,7 @@
     <x:t>1,0 (161/167)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,1 (191/175)</x:t>
+    <x:t>1,1 (214/195)</x:t>
   </x:si>
   <x:si>
     <x:t>1,0 (130/127)</x:t>
@@ -673,10 +682,7 @@
     <x:t>0,7 (6/9)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,4 (55/39)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,1 (233/217)</x:t>
+    <x:t>1,3 (78/59)</x:t>
   </x:si>
   <x:si>
     <x:t>1,0 (217/214)</x:t>
@@ -1306,10 +1312,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>12742.7971354167</x:v>
+        <x:v>14459.1879479166</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>41973.9319583333</x:v>
+        <x:v>45406.7135833333</x:v>
       </x:c>
       <x:c r="E2" s="16" t="s"/>
       <x:c r="F2" s="16" t="s"/>
@@ -1327,7 +1333,7 @@
         <x:v>8098.927125</x:v>
       </x:c>
       <x:c r="R2" s="16" t="n">
-        <x:v>17386.6671458333</x:v>
+        <x:v>20819.4487708333</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -1335,10 +1341,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>10231.7261056547</x:v>
+        <x:v>10835.5112247023</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>568955.267187499</x:v>
+        <x:v>577408.258854165</x:v>
       </x:c>
       <x:c r="E3" s="16" t="n">
         <x:v>3054.63064583333</x:v>
@@ -1380,7 +1386,7 @@
         <x:v>4906.14939583361</x:v>
       </x:c>
       <x:c r="R3" s="16" t="n">
-        <x:v>0.634375000023283</x:v>
+        <x:v>8453.62604166637</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -1388,10 +1394,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>5831.8506041666</x:v>
+        <x:v>9109.6000729166</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>178631.226812498</x:v>
+        <x:v>185186.725749998</x:v>
       </x:c>
       <x:c r="E4" s="16" t="s"/>
       <x:c r="F4" s="16" t="s"/>
@@ -1409,7 +1415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R4" s="16" t="n">
-        <x:v>11663.7012083332</x:v>
+        <x:v>18219.2001458332</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -1497,10 +1503,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>3743.715578125</x:v>
+        <x:v>3758.87674479166</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>251562.609208333</x:v>
+        <x:v>251683.898541667</x:v>
       </x:c>
       <x:c r="E7" s="16" t="s"/>
       <x:c r="F7" s="16" t="s"/>
@@ -1530,7 +1536,7 @@
         <x:v>3170.79466666662</x:v>
       </x:c>
       <x:c r="R7" s="16" t="n">
-        <x:v>2260.47233333334</x:v>
+        <x:v>2381.76166666666</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1591,10 +1597,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>2993.203485119</x:v>
+        <x:v>3012.0910148809</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
-        <x:v>1377905.44558333</x:v>
+        <x:v>1378169.871</x:v>
       </x:c>
       <x:c r="E9" s="16" t="n">
         <x:v>513.604124999838</x:v>
@@ -1636,7 +1642,7 @@
         <x:v>3710.10337500018</x:v>
       </x:c>
       <x:c r="R9" s="16" t="n">
-        <x:v>650.811416666722</x:v>
+        <x:v>915.236833333271</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:146">
@@ -1759,10 +1765,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="15" t="n">
-        <x:v>1899.80687500004</x:v>
+        <x:v>1968.76458630956</x:v>
       </x:c>
       <x:c r="D13" s="15" t="n">
-        <x:v>631140.284499999</x:v>
+        <x:v>632105.692458332</x:v>
       </x:c>
       <x:c r="E13" s="16" t="n">
         <x:v>0</x:v>
@@ -1804,7 +1810,7 @@
         <x:v>6608.28418750013</x:v>
       </x:c>
       <x:c r="R13" s="16" t="n">
-        <x:v>67.310833333293</x:v>
+        <x:v>1032.71879166656</x:v>
       </x:c>
       <x:c r="AE13" s="17" t="s"/>
     </x:row>
@@ -2192,10 +2198,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C23" s="15" t="n">
-        <x:v>873.135854166667</x:v>
+        <x:v>943.476633928576</x:v>
       </x:c>
       <x:c r="D23" s="15" t="n">
-        <x:v>283370.870854167</x:v>
+        <x:v>283863.2563125</x:v>
       </x:c>
       <x:c r="E23" s="16" t="n">
         <x:v>0</x:v>
@@ -2223,7 +2229,7 @@
         <x:v>137.227499999979</x:v>
       </x:c>
       <x:c r="R23" s="16" t="n">
-        <x:v>2315.62639583333</x:v>
+        <x:v>2808.01185416669</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:146">
@@ -2454,86 +2460,86 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C29" s="15" t="n">
-        <x:v>227.554977564102</x:v>
+        <x:v>293.303025000003</x:v>
       </x:c>
       <x:c r="D29" s="15" t="n">
-        <x:v>66670.3914583332</x:v>
+        <x:v>69227.5549166665</x:v>
       </x:c>
       <x:c r="E29" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F29" s="16" t="n">
-        <x:v>737.157458333328</x:v>
+        <x:v>673.673541666671</x:v>
       </x:c>
       <x:c r="G29" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>172.421249999999</x:v>
       </x:c>
       <x:c r="H29" s="16" t="n">
-        <x:v>42.4923333333354</x:v>
-      </x:c>
-      <x:c r="I29" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J29" s="16" t="n">
-        <x:v>1626.22233333333</x:v>
-      </x:c>
-      <x:c r="K29" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L29" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M29" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N29" s="16" t="n">
-        <x:v>163.762666666662</x:v>
-      </x:c>
-      <x:c r="O29" s="16" t="n">
-        <x:v>113.935666666672</x:v>
-      </x:c>
-      <x:c r="P29" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q29" s="16" t="n">
-        <x:v>274.644249999998</x:v>
-      </x:c>
-      <x:c r="R29" s="16" t="s"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I29" s="16" t="s"/>
+      <x:c r="J29" s="16" t="s"/>
+      <x:c r="K29" s="16" t="s"/>
+      <x:c r="L29" s="16" t="s"/>
+      <x:c r="M29" s="16" t="s"/>
+      <x:c r="N29" s="16" t="s"/>
+      <x:c r="O29" s="16" t="s"/>
+      <x:c r="P29" s="16" t="s"/>
+      <x:c r="Q29" s="16" t="s"/>
+      <x:c r="R29" s="16" t="n">
+        <x:v>620.420333333343</x:v>
+      </x:c>
     </x:row>
     <x:row r="30" spans="1:146">
       <x:c r="B30" s="14" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C30" s="15" t="n">
-        <x:v>169.218958333334</x:v>
+        <x:v>227.554977564102</x:v>
       </x:c>
       <x:c r="D30" s="15" t="n">
-        <x:v>68607.1345833331</x:v>
+        <x:v>66670.3914583332</x:v>
       </x:c>
       <x:c r="E30" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F30" s="16" t="n">
-        <x:v>673.673541666671</x:v>
+        <x:v>737.157458333328</x:v>
       </x:c>
       <x:c r="G30" s="16" t="n">
-        <x:v>172.421249999999</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I30" s="16" t="s"/>
-      <x:c r="J30" s="16" t="s"/>
-      <x:c r="K30" s="16" t="s"/>
-      <x:c r="L30" s="16" t="s"/>
-      <x:c r="M30" s="16" t="s"/>
-      <x:c r="N30" s="16" t="s"/>
-      <x:c r="O30" s="16" t="s"/>
-      <x:c r="P30" s="16" t="s"/>
-      <x:c r="Q30" s="16" t="s"/>
-      <x:c r="R30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>42.4923333333354</x:v>
+      </x:c>
+      <x:c r="I30" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J30" s="16" t="n">
+        <x:v>1626.22233333333</x:v>
+      </x:c>
+      <x:c r="K30" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L30" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M30" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N30" s="16" t="n">
+        <x:v>163.762666666662</x:v>
+      </x:c>
+      <x:c r="O30" s="16" t="n">
+        <x:v>113.935666666672</x:v>
+      </x:c>
+      <x:c r="P30" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q30" s="16" t="n">
+        <x:v>274.644249999998</x:v>
+      </x:c>
+      <x:c r="R30" s="16" t="s"/>
     </x:row>
     <x:row r="31" spans="1:146">
       <x:c r="B31" s="14" t="s">
@@ -3732,7 +3738,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -3740,7 +3746,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D3" s="19" t="s">
         <x:v>75</x:v>
@@ -3755,31 +3761,31 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="H3" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I3" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J3" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K3" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L3" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M3" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N3" s="19" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="O3" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="P3" s="19" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
         <x:v>75</x:v>
@@ -3790,16 +3796,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E4" s="19" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F4" s="19" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G4" s="19" t="s">
         <x:v>75</x:v>
@@ -3808,31 +3814,31 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="J4" s="19" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L4" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="M4" s="19" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="N4" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O4" s="19" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
@@ -3840,49 +3846,49 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="L5" s="19" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M5" s="19" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="N5" s="19" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
@@ -3890,49 +3896,49 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
@@ -3940,7 +3946,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
         <x:v>75</x:v>
@@ -3958,22 +3964,22 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
         <x:v>75</x:v>
@@ -3982,7 +3988,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
@@ -3990,49 +3996,49 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="O8" s="19" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
@@ -4040,19 +4046,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
         <x:v>75</x:v>
@@ -4064,25 +4070,25 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
@@ -4090,43 +4096,43 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E10" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
         <x:v>75</x:v>
@@ -4137,352 +4143,352 @@
     </x:row>
     <x:row r="11" spans="1:36">
       <x:c r="B11" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E11" s="19" t="s">
-        <x:v>142</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G11" s="19" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="G11" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="H11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="K11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
       <x:c r="B12" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>144</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s">
-        <x:v>145</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
-        <x:v>146</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>147</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>148</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>149</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>150</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>151</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>152</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
-        <x:v>153</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>154</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>155</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
       <x:c r="B13" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>156</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E13" s="19" t="s">
-        <x:v>157</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F13" s="19" t="s">
-        <x:v>121</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G13" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>158</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>159</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>160</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>161</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
-        <x:v>162</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>164</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>165</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
       <x:c r="B14" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
-        <x:v>168</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>169</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
       <x:c r="B15" s="14" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>171</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K15" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="L15" s="19" t="s">
-        <x:v>172</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N15" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O15" s="19" t="s">
-        <x:v>174</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
       <x:c r="B16" s="14" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E16" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F16" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G16" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="H16" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I16" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="J16" s="19" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="E16" s="19" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="F16" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="G16" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="H16" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="I16" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="J16" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="K16" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="L16" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M16" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N16" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="O16" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
       <x:c r="B17" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D17" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E17" s="19" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="D17" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E17" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="F17" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G17" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H17" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I17" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J17" s="19" t="s">
-        <x:v>178</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K17" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L17" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M17" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N17" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O17" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
@@ -4490,49 +4496,49 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E18" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F18" s="19" t="s">
-        <x:v>180</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G18" s="19" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H18" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I18" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J18" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K18" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L18" s="19" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="M18" s="19" t="s">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="N18" s="19" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="O18" s="19" t="s">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="P18" s="19" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="Q18" s="19" t="s">
-        <x:v>187</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
@@ -4540,46 +4546,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E19" s="19" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="L19" s="19" t="s">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>196</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="Q19" s="19" t="s">
         <x:v>75</x:v>
@@ -4587,93 +4593,93 @@
     </x:row>
     <x:row r="20" spans="1:36">
       <x:c r="B20" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D20" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E20" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F20" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G20" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H20" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I20" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J20" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K20" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L20" s="19" t="s">
-        <x:v>200</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M20" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="N20" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="O20" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="P20" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q20" s="19" t="s">
         <x:v>201</x:v>
-      </x:c>
-      <x:c r="N20" s="19" t="s">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="O20" s="19" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="P20" s="19" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="Q20" s="19" t="s">
-        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:36">
       <x:c r="B21" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="D21" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E21" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F21" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G21" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="H21" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I21" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="J21" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="K21" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="L21" s="19" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="M21" s="19" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="N21" s="19" t="s">
         <x:v>205</x:v>
-      </x:c>
-      <x:c r="D21" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E21" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="F21" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="G21" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="H21" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="I21" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="J21" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="K21" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="L21" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="M21" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="N21" s="19" t="s">
-        <x:v>87</x:v>
       </x:c>
       <x:c r="O21" s="19" t="s">
         <x:v>206</x:v>
@@ -4682,57 +4688,57 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="Q21" s="19" t="s">
-        <x:v>208</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:36">
       <x:c r="B22" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="18" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="D22" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E22" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F22" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G22" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H22" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I22" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="J22" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="K22" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="L22" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="M22" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="N22" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="O22" s="19" t="s">
         <x:v>209</x:v>
       </x:c>
-      <x:c r="D22" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E22" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="F22" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="G22" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="H22" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="I22" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="J22" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="K22" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="L22" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="M22" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="N22" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="O22" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="P22" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="Q22" s="19" t="s">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:36">
@@ -4740,22 +4746,22 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C23" s="18" t="s">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D23" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="E23" s="19" t="s">
-        <x:v>211</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="F23" s="19" t="s">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G23" s="19" t="s">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H23" s="19" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="I23" s="19" t="s">
         <x:v>75</x:v>
@@ -4773,16 +4779,16 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="O23" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="P23" s="19" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="Q23" s="19" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:36">
@@ -4790,10 +4796,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
         <x:v>75</x:v>
@@ -4808,57 +4814,57 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L24" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="M24" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N24" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O24" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P24" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q24" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:36">
       <x:c r="B25" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>222</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="19" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="F25" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="G25" s="19" t="s">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="H25" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="J25" s="19" t="s">
         <x:v>75</x:v>
@@ -4870,19 +4876,19 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="M25" s="19" t="s">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="N25" s="19" t="s">
-        <x:v>227</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="O25" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="P25" s="19" t="s">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="Q25" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:36">
@@ -4890,49 +4896,49 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D26" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E26" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="F26" s="19" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="G26" s="19" t="s">
-        <x:v>231</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H26" s="19" t="s">
-        <x:v>232</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I26" s="19" t="s">
-        <x:v>233</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="J26" s="19" t="s">
-        <x:v>234</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="K26" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="L26" s="19" t="s">
-        <x:v>236</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="M26" s="19" t="s">
-        <x:v>237</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="N26" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O26" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P26" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q26" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:36">
@@ -4940,49 +4946,49 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>238</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D27" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E27" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F27" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G27" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H27" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I27" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J27" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K27" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L27" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M27" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N27" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O27" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="P27" s="19" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="Q27" s="19" t="s">
-        <x:v>240</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:36">
@@ -4990,49 +4996,49 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J28" s="19" t="s">
-        <x:v>242</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="K28" s="19" t="s">
-        <x:v>243</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="L28" s="19" t="s">
-        <x:v>244</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="M28" s="19" t="s">
-        <x:v>245</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="N28" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="O28" s="19" t="s">
-        <x:v>246</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="P28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:36">
@@ -5040,19 +5046,19 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>247</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
-        <x:v>248</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E29" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="F29" s="19" t="s">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="G29" s="19" t="s">
-        <x:v>250</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
         <x:v>75</x:v>
@@ -5064,7 +5070,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="K29" s="19" t="s">
-        <x:v>251</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="L29" s="19" t="s">
         <x:v>75</x:v>
@@ -5073,7 +5079,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="N29" s="19" t="s">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="O29" s="19" t="s">
         <x:v>75</x:v>
@@ -5082,7 +5088,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="Q29" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:36">
@@ -5090,49 +5096,49 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
-        <x:v>253</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="E30" s="19" t="s">
-        <x:v>254</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="F30" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="G30" s="19" t="s">
-        <x:v>255</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="H30" s="19" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I30" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J30" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K30" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L30" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M30" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N30" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O30" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P30" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q30" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:36">
@@ -5140,49 +5146,49 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C31" s="18" t="s">
-        <x:v>256</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L31" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="M31" s="19" t="s">
-        <x:v>257</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="N31" s="19" t="s">
-        <x:v>258</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="O31" s="19" t="s">
-        <x:v>259</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="P31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:36">
@@ -5193,46 +5199,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:36">
@@ -5243,46 +5249,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:36">
@@ -5293,46 +5299,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:36">
@@ -5343,46 +5349,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:36">
@@ -5393,46 +5399,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:36">
@@ -5443,46 +5449,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:36">
@@ -5493,46 +5499,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:36">
@@ -5543,46 +5549,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:36">
@@ -5593,46 +5599,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:36">
@@ -5643,46 +5649,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:36">
@@ -5693,46 +5699,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:36">
@@ -5749,40 +5755,40 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:36">
@@ -5793,46 +5799,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:36">
@@ -5843,46 +5849,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:36">
@@ -5893,46 +5899,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:36">
@@ -5943,46 +5949,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:36">
@@ -6005,34 +6011,34 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="H48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:36">
@@ -6043,46 +6049,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:36">
@@ -6093,46 +6099,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:36">
@@ -6143,46 +6149,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:36">
@@ -6193,46 +6199,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:36">
@@ -6243,46 +6249,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:36">
@@ -6293,46 +6299,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:36">
@@ -6343,46 +6349,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:36">
@@ -6393,46 +6399,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:36">
@@ -6443,46 +6449,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:36">
@@ -6493,46 +6499,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:36">
@@ -6543,46 +6549,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:36">
@@ -6617,22 +6623,22 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="L60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:36">
@@ -6643,46 +6649,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:36">
@@ -6693,46 +6699,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:36">
@@ -6743,46 +6749,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:36">
@@ -6817,22 +6823,22 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="L64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:36">
@@ -6843,46 +6849,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:36">
@@ -6893,46 +6899,46 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:36">
@@ -6964,25 +6970,25 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="K67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:36">
@@ -6993,13 +6999,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G68" s="19" t="s">
         <x:v>75</x:v>
@@ -7017,22 +7023,22 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="L68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:36">
@@ -7043,43 +7049,43 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q69" s="19" t="s">
         <x:v>75</x:v>
